--- a/実行結果/お互いにDP(cost-infl_int)(S_f_pattern2)修正後少し足りない.xlsx
+++ b/実行結果/お互いにDP(cost-infl_int)(S_f_pattern2)修正後少し足りない.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79A43591-3025-455F-A41B-91716BE991CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A92A642-0EF4-4705-9357-65DF65089367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10320" xr2:uid="{D7F8EA72-BE99-4FA3-821D-F1D763A869CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{D7F8EA72-BE99-4FA3-821D-F1D763A869CE}"/>
   </bookViews>
   <sheets>
     <sheet name="お互いにDP(cost-infl_int)(S_f_patte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -703,11 +716,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9487052B-5BC6-4C28-8D38-5E762CF76CDE}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="K24" sqref="J9:K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1134,8 +1150,8 @@
         <v>9</v>
       </c>
       <c r="L1" s="1">
-        <f>MAX(I2:I36)</f>
-        <v>0.27174371223830263</v>
+        <f>MAX(I2:I37)</f>
+        <v>0.29958706094732024</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1172,8 +1188,8 @@
         <v>10</v>
       </c>
       <c r="L2" s="1">
-        <f>AVERAGE(I2:I36)</f>
-        <v>8.2758175895862929E-2</v>
+        <f>AVERAGE(I2:I37)</f>
+        <v>8.8781200480625613E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1199,11 +1215,11 @@
         <v>202.881</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H36" si="0">B3-F3</f>
+        <f t="shared" ref="H3:H37" si="0">B3-F3</f>
         <v>2.0249999999999986</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I36" si="1">H3/B3</f>
+        <f t="shared" ref="I3:I37" si="1">H3/B3</f>
         <v>3.084163392122816E-2</v>
       </c>
     </row>
@@ -1487,34 +1503,34 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" s="2">
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>23.146000000000001</v>
+        <v>225.45699999999999</v>
       </c>
       <c r="C13">
-        <v>253.69800000000001</v>
+        <v>13.651999999999999</v>
       </c>
       <c r="D13">
-        <v>86.558000000000007</v>
+        <v>235.93700000000001</v>
       </c>
       <c r="E13">
-        <v>100.779</v>
+        <v>235.00800000000001</v>
       </c>
       <c r="F13">
-        <v>21.411000000000001</v>
+        <v>157.91300000000001</v>
       </c>
       <c r="G13">
-        <v>254.89599999999999</v>
+        <v>102.07599999999999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1.7349999999999994</v>
+        <f>B13-F13</f>
+        <v>67.543999999999983</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>7.4958956191134504E-2</v>
+        <v>0.29958706094732024</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1522,30 +1538,30 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>69.649000000000001</v>
+        <v>23.146000000000001</v>
       </c>
       <c r="C14">
-        <v>200.17599999999999</v>
+        <v>253.69800000000001</v>
       </c>
       <c r="D14">
-        <v>198.21199999999999</v>
+        <v>86.558000000000007</v>
       </c>
       <c r="E14">
-        <v>200.20400000000001</v>
+        <v>100.779</v>
       </c>
       <c r="F14">
-        <v>63.345999999999997</v>
+        <v>21.411000000000001</v>
       </c>
       <c r="G14">
-        <v>205.13800000000001</v>
+        <v>254.89599999999999</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>6.3030000000000044</v>
+        <v>1.7349999999999994</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>9.0496633117489192E-2</v>
+        <v>7.4958956191134504E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1553,30 +1569,30 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>123.84399999999999</v>
+        <v>69.649000000000001</v>
       </c>
       <c r="C15">
-        <v>143.97900000000001</v>
+        <v>200.17599999999999</v>
       </c>
       <c r="D15">
-        <v>228.39599999999999</v>
+        <v>198.21199999999999</v>
       </c>
       <c r="E15">
-        <v>227.7</v>
+        <v>200.20400000000001</v>
       </c>
       <c r="F15">
-        <v>122.941</v>
+        <v>63.345999999999997</v>
       </c>
       <c r="G15">
-        <v>143.56899999999999</v>
+        <v>205.13800000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.90299999999999159</v>
+        <v>6.3030000000000044</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>7.2914311553243724E-3</v>
+        <v>9.0496633117489192E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1584,61 +1600,61 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>139.048</v>
+        <v>123.84399999999999</v>
       </c>
       <c r="C16">
-        <v>123.85899999999999</v>
+        <v>143.97900000000001</v>
       </c>
       <c r="D16">
-        <v>232.251</v>
+        <v>228.39599999999999</v>
       </c>
       <c r="E16">
-        <v>232.67699999999999</v>
+        <v>227.7</v>
       </c>
       <c r="F16">
-        <v>132.75899999999999</v>
+        <v>122.941</v>
       </c>
       <c r="G16">
-        <v>135.44800000000001</v>
+        <v>143.56899999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>6.2890000000000157</v>
+        <v>0.90299999999999159</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>4.5228985674011964E-2</v>
+        <v>7.2914311553243724E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>19.966999999999999</v>
+        <v>139.048</v>
       </c>
       <c r="C17">
-        <v>272.58199999999999</v>
+        <v>123.85899999999999</v>
       </c>
       <c r="D17">
-        <v>93.438000000000002</v>
+        <v>232.251</v>
       </c>
       <c r="E17">
-        <v>98.516999999999996</v>
+        <v>232.67699999999999</v>
       </c>
       <c r="F17">
-        <v>15.951000000000001</v>
+        <v>132.75899999999999</v>
       </c>
       <c r="G17">
-        <v>276.233</v>
+        <v>135.44800000000001</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>4.0159999999999982</v>
+        <v>6.2890000000000157</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.20113186758150942</v>
+        <v>4.5228985674011964E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1646,30 +1662,30 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>48.133000000000003</v>
+        <v>19.966999999999999</v>
       </c>
       <c r="C18">
-        <v>239.58799999999999</v>
+        <v>272.58199999999999</v>
       </c>
       <c r="D18">
-        <v>192.08</v>
+        <v>93.438000000000002</v>
       </c>
       <c r="E18">
-        <v>197.084</v>
+        <v>98.516999999999996</v>
       </c>
       <c r="F18">
-        <v>46.838000000000001</v>
+        <v>15.951000000000001</v>
       </c>
       <c r="G18">
-        <v>240.292</v>
+        <v>276.233</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.2950000000000017</v>
+        <v>4.0159999999999982</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>2.6904618453036412E-2</v>
+        <v>0.20113186758150942</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1677,30 +1693,30 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>121.29900000000001</v>
+        <v>48.133000000000003</v>
       </c>
       <c r="C19">
-        <v>163.227</v>
+        <v>239.58799999999999</v>
       </c>
       <c r="D19">
-        <v>250.184</v>
+        <v>192.08</v>
       </c>
       <c r="E19">
-        <v>251.54300000000001</v>
+        <v>197.084</v>
       </c>
       <c r="F19">
-        <v>111.226</v>
+        <v>46.838000000000001</v>
       </c>
       <c r="G19">
-        <v>179.50800000000001</v>
+        <v>240.292</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>10.073000000000008</v>
+        <v>1.2950000000000017</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>8.3042729123900497E-2</v>
+        <v>2.6904618453036412E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1708,61 +1724,61 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>128.52000000000001</v>
+        <v>121.29900000000001</v>
       </c>
       <c r="C20">
-        <v>153.01300000000001</v>
+        <v>163.227</v>
       </c>
       <c r="D20">
-        <v>248.50200000000001</v>
+        <v>250.184</v>
       </c>
       <c r="E20">
-        <v>252.60400000000001</v>
+        <v>251.54300000000001</v>
       </c>
       <c r="F20">
-        <v>117.02800000000001</v>
+        <v>111.226</v>
       </c>
       <c r="G20">
-        <v>173.42099999999999</v>
+        <v>179.50800000000001</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>11.492000000000004</v>
+        <v>10.073000000000008</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>8.9417989417989452E-2</v>
+        <v>8.3042729123900497E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>16.89</v>
+        <v>128.52000000000001</v>
       </c>
       <c r="C21">
-        <v>288.35199999999998</v>
+        <v>153.01300000000001</v>
       </c>
       <c r="D21">
-        <v>89.597999999999999</v>
+        <v>248.50200000000001</v>
       </c>
       <c r="E21">
-        <v>100.113</v>
+        <v>252.60400000000001</v>
       </c>
       <c r="F21">
-        <v>16.084</v>
+        <v>117.02800000000001</v>
       </c>
       <c r="G21">
-        <v>287.54300000000001</v>
+        <v>173.42099999999999</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.80600000000000094</v>
+        <v>11.492000000000004</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>4.7720544701006569E-2</v>
+        <v>8.9417989417989452E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1770,30 +1786,30 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>43.426000000000002</v>
+        <v>16.89</v>
       </c>
       <c r="C22">
-        <v>255.066</v>
+        <v>288.35199999999998</v>
       </c>
       <c r="D22">
-        <v>200.74</v>
+        <v>89.597999999999999</v>
       </c>
       <c r="E22">
-        <v>200.316</v>
+        <v>100.113</v>
       </c>
       <c r="F22">
-        <v>31.72</v>
+        <v>16.084</v>
       </c>
       <c r="G22">
-        <v>268.02699999999999</v>
+        <v>287.54300000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>11.706000000000003</v>
+        <v>0.80600000000000094</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0.26956201354027548</v>
+        <v>4.7720544701006569E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1801,30 +1817,30 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>113.426</v>
+        <v>43.426000000000002</v>
       </c>
       <c r="C23">
-        <v>186.733</v>
+        <v>255.066</v>
       </c>
       <c r="D23">
-        <v>256.56900000000002</v>
+        <v>200.74</v>
       </c>
       <c r="E23">
-        <v>254.55</v>
+        <v>200.316</v>
       </c>
       <c r="F23">
-        <v>112.869</v>
+        <v>31.72</v>
       </c>
       <c r="G23">
-        <v>186.239</v>
+        <v>268.02699999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.55700000000000216</v>
+        <v>11.706000000000003</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>4.9106906705693766E-3</v>
+        <v>0.26956201354027548</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1832,61 +1848,61 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>120.625</v>
+        <v>113.426</v>
       </c>
       <c r="C24">
-        <v>178.97200000000001</v>
+        <v>186.733</v>
       </c>
       <c r="D24">
-        <v>255.404</v>
+        <v>256.56900000000002</v>
       </c>
       <c r="E24">
-        <v>257.66000000000003</v>
+        <v>254.55</v>
       </c>
       <c r="F24">
-        <v>119.759</v>
+        <v>112.869</v>
       </c>
       <c r="G24">
-        <v>179.53700000000001</v>
+        <v>186.239</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.86599999999999966</v>
+        <v>0.55700000000000216</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>7.1792746113989612E-3</v>
+        <v>4.9106906705693766E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>25.734000000000002</v>
+        <v>120.625</v>
       </c>
       <c r="C25">
-        <v>265.28399999999999</v>
+        <v>178.97200000000001</v>
       </c>
       <c r="D25">
-        <v>92.21</v>
+        <v>255.404</v>
       </c>
       <c r="E25">
-        <v>99.421000000000006</v>
+        <v>257.66000000000003</v>
       </c>
       <c r="F25">
-        <v>25.58</v>
+        <v>119.759</v>
       </c>
       <c r="G25">
-        <v>266.45100000000002</v>
+        <v>179.53700000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.15400000000000347</v>
+        <v>0.86599999999999966</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>5.9843009248466408E-3</v>
+        <v>7.1792746113989612E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1894,30 +1910,30 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>56.905999999999999</v>
+        <v>25.734000000000002</v>
       </c>
       <c r="C26">
-        <v>232.76400000000001</v>
+        <v>265.28399999999999</v>
       </c>
       <c r="D26">
-        <v>185.97300000000001</v>
+        <v>92.21</v>
       </c>
       <c r="E26">
-        <v>199.37899999999999</v>
+        <v>99.421000000000006</v>
       </c>
       <c r="F26">
-        <v>48.301000000000002</v>
+        <v>25.58</v>
       </c>
       <c r="G26">
-        <v>239.94900000000001</v>
+        <v>266.45100000000002</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>8.6049999999999969</v>
+        <v>0.15400000000000347</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0.15121428320388003</v>
+        <v>5.9843009248466408E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1925,30 +1941,30 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>145.62299999999999</v>
+        <v>56.905999999999999</v>
       </c>
       <c r="C27">
-        <v>141.22200000000001</v>
+        <v>232.76400000000001</v>
       </c>
       <c r="D27">
-        <v>259.14699999999999</v>
+        <v>185.97300000000001</v>
       </c>
       <c r="E27">
-        <v>262.20100000000002</v>
+        <v>199.37899999999999</v>
       </c>
       <c r="F27">
-        <v>134.779</v>
+        <v>48.301000000000002</v>
       </c>
       <c r="G27">
-        <v>154.69900000000001</v>
+        <v>239.94900000000001</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>10.843999999999994</v>
+        <v>8.6049999999999969</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>7.4466258764068829E-2</v>
+        <v>0.15121428320388003</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1956,61 +1972,61 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>156.44300000000001</v>
+        <v>145.62299999999999</v>
       </c>
       <c r="C28">
-        <v>129.42400000000001</v>
+        <v>141.22200000000001</v>
       </c>
       <c r="D28">
-        <v>261.60300000000001</v>
+        <v>259.14699999999999</v>
       </c>
       <c r="E28">
-        <v>266.15800000000002</v>
+        <v>262.20100000000002</v>
       </c>
       <c r="F28">
-        <v>145.40199999999999</v>
+        <v>134.779</v>
       </c>
       <c r="G28">
-        <v>146.63800000000001</v>
+        <v>154.69900000000001</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>11.041000000000025</v>
+        <v>10.843999999999994</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>7.0575225481485426E-2</v>
+        <v>7.4466258764068829E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>21.26</v>
+        <v>156.44300000000001</v>
       </c>
       <c r="C29">
-        <v>264.12099999999998</v>
+        <v>129.42400000000001</v>
       </c>
       <c r="D29">
-        <v>90.245000000000005</v>
+        <v>261.60300000000001</v>
       </c>
       <c r="E29">
-        <v>99.102000000000004</v>
+        <v>266.15800000000002</v>
       </c>
       <c r="F29">
-        <v>17.106000000000002</v>
+        <v>145.40199999999999</v>
       </c>
       <c r="G29">
-        <v>267.779</v>
+        <v>146.63800000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>4.1539999999999999</v>
+        <v>11.041000000000025</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.19539040451552209</v>
+        <v>7.0575225481485426E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2018,30 +2034,30 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>54.082999999999998</v>
+        <v>21.26</v>
       </c>
       <c r="C30">
-        <v>230.67400000000001</v>
+        <v>264.12099999999998</v>
       </c>
       <c r="D30">
-        <v>196.976</v>
+        <v>90.245000000000005</v>
       </c>
       <c r="E30">
-        <v>200.911</v>
+        <v>99.102000000000004</v>
       </c>
       <c r="F30">
-        <v>48.097000000000001</v>
+        <v>17.106000000000002</v>
       </c>
       <c r="G30">
-        <v>234.684</v>
+        <v>267.779</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>5.9859999999999971</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>0.11068172993362049</v>
+        <v>0.19539040451552209</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2049,30 +2065,30 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>123.387</v>
+        <v>54.082999999999998</v>
       </c>
       <c r="C31">
-        <v>160.291</v>
+        <v>230.67400000000001</v>
       </c>
       <c r="D31">
-        <v>243.304</v>
+        <v>196.976</v>
       </c>
       <c r="E31">
-        <v>243.905</v>
+        <v>200.911</v>
       </c>
       <c r="F31">
-        <v>122.577</v>
+        <v>48.097000000000001</v>
       </c>
       <c r="G31">
-        <v>159.85499999999999</v>
+        <v>234.684</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>0.81000000000000227</v>
+        <v>5.9859999999999971</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>6.5647110311459252E-3</v>
+        <v>0.11068172993362049</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2080,61 +2096,61 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>138.97499999999999</v>
+        <v>123.387</v>
       </c>
       <c r="C32">
-        <v>140.584</v>
+        <v>160.291</v>
       </c>
       <c r="D32">
-        <v>244.84700000000001</v>
+        <v>243.304</v>
       </c>
       <c r="E32">
-        <v>247.37899999999999</v>
+        <v>243.905</v>
       </c>
       <c r="F32">
-        <v>128.874</v>
+        <v>122.577</v>
       </c>
       <c r="G32">
-        <v>157.15600000000001</v>
+        <v>159.85499999999999</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>10.100999999999999</v>
+        <v>0.81000000000000227</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>7.2682137075013489E-2</v>
+        <v>6.5647110311459252E-3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>21.350999999999999</v>
+        <v>138.97499999999999</v>
       </c>
       <c r="C33">
-        <v>259.49400000000003</v>
+        <v>140.584</v>
       </c>
       <c r="D33">
-        <v>106.172</v>
+        <v>244.84700000000001</v>
       </c>
       <c r="E33">
-        <v>110.745</v>
+        <v>247.37899999999999</v>
       </c>
       <c r="F33">
-        <v>15.548999999999999</v>
+        <v>128.874</v>
       </c>
       <c r="G33">
-        <v>265.50700000000001</v>
+        <v>157.15600000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>5.8019999999999996</v>
+        <v>10.100999999999999</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>0.27174371223830263</v>
+        <v>7.2682137075013489E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2142,30 +2158,30 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <v>59.110999999999997</v>
+        <v>21.350999999999999</v>
       </c>
       <c r="C34">
-        <v>213.78100000000001</v>
+        <v>259.49400000000003</v>
       </c>
       <c r="D34">
-        <v>198.595</v>
+        <v>106.172</v>
       </c>
       <c r="E34">
-        <v>198.19800000000001</v>
+        <v>110.745</v>
       </c>
       <c r="F34">
-        <v>52.465000000000003</v>
+        <v>15.548999999999999</v>
       </c>
       <c r="G34">
-        <v>224.56800000000001</v>
+        <v>265.50700000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>6.6459999999999937</v>
+        <v>5.8019999999999996</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>0.11243254216643254</v>
+        <v>0.27174371223830263</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2173,30 +2189,30 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>100.84699999999999</v>
+        <v>59.110999999999997</v>
       </c>
       <c r="C35">
-        <v>175.16300000000001</v>
+        <v>213.78100000000001</v>
       </c>
       <c r="D35">
-        <v>230.12899999999999</v>
+        <v>198.595</v>
       </c>
       <c r="E35">
-        <v>228.494</v>
+        <v>198.19800000000001</v>
       </c>
       <c r="F35">
-        <v>97.510999999999996</v>
+        <v>52.465000000000003</v>
       </c>
       <c r="G35">
-        <v>176.64400000000001</v>
+        <v>224.56800000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>3.3359999999999985</v>
+        <v>6.6459999999999937</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="1"/>
-        <v>3.3079813975626433E-2</v>
+        <v>0.11243254216643254</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2204,28 +2220,59 @@
         <v>8</v>
       </c>
       <c r="B36">
+        <v>100.84699999999999</v>
+      </c>
+      <c r="C36">
+        <v>175.16300000000001</v>
+      </c>
+      <c r="D36">
+        <v>230.12899999999999</v>
+      </c>
+      <c r="E36">
+        <v>228.494</v>
+      </c>
+      <c r="F36">
+        <v>97.510999999999996</v>
+      </c>
+      <c r="G36">
+        <v>176.64400000000001</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>3.3359999999999985</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3079813975626433E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
         <v>113.027</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>156.58699999999999</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>226.26300000000001</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>235.672</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>106.04600000000001</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>170.703</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>6.9809999999999945</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I37" s="1">
         <f t="shared" si="1"/>
         <v>6.1764003291248946E-2</v>
       </c>

--- a/実行結果/お互いにDP(cost-infl_int)(S_f_pattern2)修正後少し足りない.xlsx
+++ b/実行結果/お互いにDP(cost-infl_int)(S_f_pattern2)修正後少し足りない.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A92A642-0EF4-4705-9357-65DF65089367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C55024D-D87E-43D1-B907-DDE021304586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{D7F8EA72-BE99-4FA3-821D-F1D763A869CE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="お互いにDP(cost-infl_int)(S_f_patte" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>seed</t>
   </si>
@@ -119,6 +120,19 @@
     <t>平均</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お互いにDP(cost-infl_int)(S_f_pattern2)修正後</t>
+    <rPh sb="1" eb="2">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -716,14 +730,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1115,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1315,6 +1326,9 @@
         <f t="shared" si="1"/>
         <v>0.21930971137881086</v>
       </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -1503,7 +1517,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
